--- a/src/main/resources/test_data.xlsx
+++ b/src/main/resources/test_data.xlsx
@@ -1,24 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="HomePage" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginPage" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>HomePageTitle</t>
+  </si>
+  <si>
+    <t>Demo Web Shop</t>
+  </si>
+  <si>
+    <t>rajeena123@gmail.com</t>
+  </si>
+  <si>
+    <t>rajeena123</t>
+  </si>
+  <si>
+    <t>rajee123@gmail.com</t>
+  </si>
+  <si>
+    <t>rajee123</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -41,17 +79,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +147,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +182,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +390,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/test_data.xlsx
+++ b/src/main/resources/test_data.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
     <sheet name="LoginPage" sheetId="2" r:id="rId2"/>
+    <sheet name="RegisterPage" sheetId="4" r:id="rId3"/>
+    <sheet name="JewelleryPage" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>HomePageTitle</t>
   </si>
@@ -39,6 +41,34 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>minnu</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+        </t>
+  </si>
+  <si>
+    <t>Jewelry</t>
+  </si>
+  <si>
+    <t>MenuOption</t>
   </si>
 </sst>
 </file>
@@ -83,9 +113,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -422,7 +455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -463,4 +496,82 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>123456</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/test_data.xlsx
+++ b/src/main/resources/test_data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HomePageTitle</t>
   </si>
@@ -61,14 +61,38 @@
     <t>m</t>
   </si>
   <si>
+    <t>MenuOption</t>
+  </si>
+  <si>
     <t xml:space="preserve">
-        </t>
-  </si>
-  <si>
-    <t>Jewelry</t>
-  </si>
-  <si>
-    <t>MenuOption</t>
+  SortOptions     </t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Name: A to Z</t>
+  </si>
+  <si>
+    <t>Name: Z to A</t>
+  </si>
+  <si>
+    <t>Price: Low to High</t>
+  </si>
+  <si>
+    <t>Black &amp; White Diamond Heart</t>
+  </si>
+  <si>
+    <t>Price: High to Low</t>
+  </si>
+  <si>
+    <t>Created on</t>
+  </si>
+  <si>
+    <t>JEWELRY</t>
+  </si>
+  <si>
+    <t>productName</t>
   </si>
 </sst>
 </file>
@@ -546,29 +570,64 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>15</v>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test_data.xlsx
+++ b/src/main/resources/test_data.xlsx
@@ -480,7 +480,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,7 +573,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
